--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_10_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_10_1_replicas.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="180">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -41,9 +44,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -74,6 +74,21 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.619+/-0.0</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.001+/-0.001</t>
+  </si>
+  <si>
     <t>0.92+/-0.013</t>
   </si>
   <si>
@@ -101,265 +116,271 @@
     <t>0.405</t>
   </si>
   <si>
+    <t>0.004+/-0.001</t>
+  </si>
+  <si>
+    <t>0.619+/-0.001</t>
+  </si>
+  <si>
+    <t>0.618+/-0.0</t>
+  </si>
+  <si>
+    <t>0.499+/-0.016</t>
+  </si>
+  <si>
+    <t>0.477+/-0.075</t>
+  </si>
+  <si>
+    <t>0.506</t>
+  </si>
+  <si>
+    <t>0.041+/-0.005</t>
+  </si>
+  <si>
+    <t>0.038+/-0.012</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.327+/-0.05</t>
+  </si>
+  <si>
+    <t>0.487+/-0.005</t>
+  </si>
+  <si>
+    <t>0.486+/-0.0</t>
+  </si>
+  <si>
+    <t>0.483</t>
+  </si>
+  <si>
+    <t>0.413+/-0.002</t>
+  </si>
+  <si>
+    <t>0.412+/-0.006</t>
+  </si>
+  <si>
+    <t>0.409</t>
+  </si>
+  <si>
+    <t>0.821+/-0.009</t>
+  </si>
+  <si>
+    <t>0.821+/-0.019</t>
+  </si>
+  <si>
+    <t>0.799</t>
+  </si>
+  <si>
+    <t>0.008+/-0.003</t>
+  </si>
+  <si>
+    <t>0.554+/-0.001</t>
+  </si>
+  <si>
+    <t>0.554+/-0.0</t>
+  </si>
+  <si>
+    <t>0.555</t>
+  </si>
+  <si>
+    <t>0.427+/-0.001</t>
+  </si>
+  <si>
+    <t>0.426+/-0.012</t>
+  </si>
+  <si>
+    <t>0.428</t>
+  </si>
+  <si>
+    <t>0.498+/-0.012</t>
+  </si>
+  <si>
+    <t>0.495+/-0.021</t>
+  </si>
+  <si>
+    <t>0.498</t>
+  </si>
+  <si>
+    <t>0.009+/-0.001</t>
+  </si>
+  <si>
+    <t>0.723+/-0.007</t>
+  </si>
+  <si>
+    <t>0.684+/-0.0</t>
+  </si>
+  <si>
+    <t>0.689</t>
+  </si>
+  <si>
+    <t>0.706+/-0.024</t>
+  </si>
+  <si>
+    <t>0.631+/-0.035</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.47+/-0.035</t>
+  </si>
+  <si>
+    <t>0.42+/-0.046</t>
+  </si>
+  <si>
+    <t>0.345</t>
+  </si>
+  <si>
+    <t>6.614+/-1.155</t>
+  </si>
+  <si>
+    <t>0.723+/-0.008</t>
+  </si>
+  <si>
+    <t>0.659+/-0.0</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>0.761+/-0.04</t>
+  </si>
+  <si>
+    <t>0.605+/-0.046</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.406+/-0.054</t>
+  </si>
+  <si>
+    <t>0.324+/-0.051</t>
+  </si>
+  <si>
+    <t>0.379</t>
+  </si>
+  <si>
+    <t>0.101+/-0.002</t>
+  </si>
+  <si>
+    <t>0.712+/-0.009</t>
+  </si>
+  <si>
+    <t>0.661+/-0.0</t>
+  </si>
+  <si>
+    <t>0.656</t>
+  </si>
+  <si>
+    <t>0.73+/-0.034</t>
+  </si>
+  <si>
+    <t>0.605+/-0.033</t>
+  </si>
+  <si>
+    <t>0.572</t>
+  </si>
+  <si>
+    <t>0.395+/-0.062</t>
+  </si>
+  <si>
+    <t>0.331+/-0.061</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.134+/-0.002</t>
+  </si>
+  <si>
+    <t>0.652+/-0.001</t>
+  </si>
+  <si>
+    <t>0.639+/-0.0</t>
+  </si>
+  <si>
+    <t>0.643</t>
+  </si>
+  <si>
+    <t>0.842+/-0.012</t>
+  </si>
+  <si>
+    <t>0.746+/-0.041</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.105+/-0.004</t>
+  </si>
+  <si>
+    <t>0.081+/-0.009</t>
+  </si>
+  <si>
+    <t>0.099</t>
+  </si>
+  <si>
+    <t>56.494+/-6.805</t>
+  </si>
+  <si>
+    <t>0.801+/-0.0</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>0.965+/-0.0</t>
+  </si>
+  <si>
+    <t>0.805+/-0.0</t>
+  </si>
+  <si>
+    <t>0.811</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.536+/-0.049</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.826+/-0.002</t>
+  </si>
+  <si>
+    <t>0.147+/-0.019</t>
+  </si>
+  <si>
+    <t>0.169</t>
+  </si>
+  <si>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>0.309+/-0.045</t>
+  </si>
+  <si>
+    <t>0.318+/-0.319</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
     <t>0.003+/-0.001</t>
   </si>
   <si>
-    <t>0.619+/-0.001</t>
-  </si>
-  <si>
-    <t>0.618+/-0.0</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.499+/-0.016</t>
-  </si>
-  <si>
-    <t>0.477+/-0.075</t>
-  </si>
-  <si>
-    <t>0.506</t>
-  </si>
-  <si>
-    <t>0.041+/-0.005</t>
-  </si>
-  <si>
-    <t>0.038+/-0.012</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.208+/-0.044</t>
-  </si>
-  <si>
-    <t>0.487+/-0.005</t>
-  </si>
-  <si>
-    <t>0.486+/-0.0</t>
-  </si>
-  <si>
-    <t>0.483</t>
-  </si>
-  <si>
-    <t>0.413+/-0.002</t>
-  </si>
-  <si>
-    <t>0.412+/-0.006</t>
-  </si>
-  <si>
-    <t>0.409</t>
-  </si>
-  <si>
-    <t>0.821+/-0.009</t>
-  </si>
-  <si>
-    <t>0.821+/-0.019</t>
-  </si>
-  <si>
-    <t>0.799</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.554+/-0.001</t>
-  </si>
-  <si>
-    <t>0.554+/-0.0</t>
-  </si>
-  <si>
-    <t>0.555</t>
-  </si>
-  <si>
-    <t>0.427+/-0.001</t>
-  </si>
-  <si>
-    <t>0.426+/-0.012</t>
-  </si>
-  <si>
-    <t>0.428</t>
-  </si>
-  <si>
-    <t>0.498+/-0.012</t>
-  </si>
-  <si>
-    <t>0.495+/-0.021</t>
-  </si>
-  <si>
-    <t>0.498</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.727+/-0.005</t>
-  </si>
-  <si>
-    <t>0.684+/-0.0</t>
-  </si>
-  <si>
-    <t>0.687</t>
-  </si>
-  <si>
-    <t>0.719+/-0.032</t>
-  </si>
-  <si>
-    <t>0.636+/-0.042</t>
-  </si>
-  <si>
-    <t>0.639</t>
-  </si>
-  <si>
-    <t>0.47+/-0.043</t>
-  </si>
-  <si>
-    <t>0.412+/-0.052</t>
-  </si>
-  <si>
-    <t>5.882+/-1.293</t>
-  </si>
-  <si>
-    <t>0.723+/-0.008</t>
-  </si>
-  <si>
-    <t>0.644</t>
-  </si>
-  <si>
-    <t>0.76+/-0.04</t>
-  </si>
-  <si>
-    <t>0.608+/-0.045</t>
-  </si>
-  <si>
-    <t>0.548</t>
-  </si>
-  <si>
-    <t>0.405+/-0.053</t>
-  </si>
-  <si>
-    <t>0.325+/-0.051</t>
-  </si>
-  <si>
-    <t>0.379</t>
-  </si>
-  <si>
-    <t>0.099+/-0.003</t>
-  </si>
-  <si>
-    <t>0.712+/-0.009</t>
-  </si>
-  <si>
-    <t>0.661+/-0.0</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.73+/-0.033</t>
-  </si>
-  <si>
-    <t>0.604+/-0.033</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.395+/-0.061</t>
-  </si>
-  <si>
-    <t>0.331+/-0.059</t>
-  </si>
-  <si>
-    <t>0.391</t>
-  </si>
-  <si>
-    <t>0.133+/-0.003</t>
-  </si>
-  <si>
-    <t>0.652+/-0.001</t>
-  </si>
-  <si>
-    <t>0.639+/-0.0</t>
-  </si>
-  <si>
-    <t>0.643</t>
-  </si>
-  <si>
-    <t>0.842+/-0.012</t>
-  </si>
-  <si>
-    <t>0.746+/-0.041</t>
-  </si>
-  <si>
-    <t>0.734</t>
-  </si>
-  <si>
-    <t>0.105+/-0.004</t>
-  </si>
-  <si>
-    <t>0.081+/-0.009</t>
-  </si>
-  <si>
-    <t>0.099</t>
-  </si>
-  <si>
-    <t>60.079+/-7.454</t>
-  </si>
-  <si>
-    <t>0.965+/-0.0</t>
-  </si>
-  <si>
-    <t>0.805+/-0.0</t>
-  </si>
-  <si>
-    <t>0.811</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.536+/-0.049</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>0.826+/-0.002</t>
-  </si>
-  <si>
-    <t>0.147+/-0.019</t>
-  </si>
-  <si>
-    <t>0.169</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.801+/-0.0</t>
-  </si>
-  <si>
-    <t>0.801</t>
-  </si>
-  <si>
-    <t>0.309+/-0.045</t>
-  </si>
-  <si>
-    <t>0.318+/-0.319</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
     <t>0.004+/-0.004</t>
   </si>
   <si>
     <t>0.004</t>
   </si>
   <si>
-    <t>0.235+/-0.04</t>
+    <t>0.351+/-0.06</t>
   </si>
   <si>
     <t>0.77+/-0.003</t>
@@ -389,6 +410,9 @@
     <t>0.142</t>
   </si>
   <si>
+    <t>0.009+/-0.002</t>
+  </si>
+  <si>
     <t>0.798+/-0.004</t>
   </si>
   <si>
@@ -416,61 +440,64 @@
     <t>0.002</t>
   </si>
   <si>
-    <t>0.826+/-0.006</t>
-  </si>
-  <si>
-    <t>0.808+/-0.0</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>0.74+/-0.044</t>
-  </si>
-  <si>
-    <t>0.574+/-0.044</t>
-  </si>
-  <si>
-    <t>0.634</t>
-  </si>
-  <si>
-    <t>0.198+/-0.049</t>
-  </si>
-  <si>
-    <t>0.149+/-0.036</t>
-  </si>
-  <si>
-    <t>0.215</t>
-  </si>
-  <si>
-    <t>4.727+/-1.346</t>
+    <t>0.01+/-0.005</t>
+  </si>
+  <si>
+    <t>0.827+/-0.004</t>
+  </si>
+  <si>
+    <t>0.807+/-0.0</t>
+  </si>
+  <si>
+    <t>0.823</t>
+  </si>
+  <si>
+    <t>0.745+/-0.045</t>
+  </si>
+  <si>
+    <t>0.562+/-0.06</t>
+  </si>
+  <si>
+    <t>0.688</t>
+  </si>
+  <si>
+    <t>0.2+/-0.032</t>
+  </si>
+  <si>
+    <t>0.146+/-0.032</t>
+  </si>
+  <si>
+    <t>0.196</t>
+  </si>
+  <si>
+    <t>8.262+/-3.05</t>
   </si>
   <si>
     <t>0.84+/-0.002</t>
   </si>
   <si>
+    <t>0.8+/-0.0</t>
+  </si>
+  <si>
     <t>0.807</t>
   </si>
   <si>
-    <t>0.856+/-0.024</t>
-  </si>
-  <si>
-    <t>0.498+/-0.05</t>
-  </si>
-  <si>
-    <t>0.549</t>
+    <t>0.857+/-0.025</t>
+  </si>
+  <si>
+    <t>0.487+/-0.049</t>
   </si>
   <si>
     <t>0.234+/-0.021</t>
   </si>
   <si>
-    <t>0.135+/-0.019</t>
-  </si>
-  <si>
-    <t>0.144</t>
-  </si>
-  <si>
-    <t>0.075+/-0.008</t>
+    <t>0.133+/-0.021</t>
+  </si>
+  <si>
+    <t>0.145</t>
+  </si>
+  <si>
+    <t>0.101+/-0.009</t>
   </si>
   <si>
     <t>0.833+/-0.003</t>
@@ -479,36 +506,33 @@
     <t>0.802+/-0.0</t>
   </si>
   <si>
-    <t>0.805</t>
-  </si>
-  <si>
-    <t>0.849+/-0.062</t>
-  </si>
-  <si>
-    <t>0.518+/-0.07</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>0.194+/-0.029</t>
-  </si>
-  <si>
-    <t>0.118+/-0.017</t>
+    <t>0.804</t>
+  </si>
+  <si>
+    <t>0.851+/-0.061</t>
+  </si>
+  <si>
+    <t>0.516+/-0.072</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.194+/-0.028</t>
+  </si>
+  <si>
+    <t>0.116+/-0.014</t>
   </si>
   <si>
     <t>0.189</t>
   </si>
   <si>
-    <t>0.092+/-0.006</t>
+    <t>0.146+/-0.019</t>
   </si>
   <si>
     <t>0.812+/-0.001</t>
   </si>
   <si>
-    <t>0.807+/-0.0</t>
-  </si>
-  <si>
     <t>0.808</t>
   </si>
   <si>
@@ -530,7 +554,7 @@
     <t>0.056</t>
   </si>
   <si>
-    <t>28.695+/-2.406</t>
+    <t>34.393+/-3.967</t>
   </si>
 </sst>
 </file>
@@ -931,28 +955,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2">
-        <v>0.6189445196211096</v>
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -960,31 +984,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3">
-        <v>0.6189445196211096</v>
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -992,31 +1016,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4">
-        <v>0.6190476190476191</v>
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1024,31 +1048,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1056,31 +1080,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1088,31 +1112,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1120,31 +1144,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8">
-        <v>0.6189445196211096</v>
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1152,31 +1176,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9">
-        <v>0.6189445196211096</v>
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1184,31 +1208,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10">
-        <v>0.6190476190476191</v>
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1216,31 +1240,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1290,31 +1314,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2" t="s">
         <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J2">
-        <v>0.8014433919711321</v>
+        <v>161</v>
+      </c>
+      <c r="J2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1322,31 +1346,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
         <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3">
-        <v>0.8014433919711321</v>
+        <v>162</v>
+      </c>
+      <c r="J3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1354,19 +1378,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
         <v>144</v>
@@ -1375,10 +1399,10 @@
         <v>154</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4">
-        <v>0.8015873015873016</v>
+        <v>163</v>
+      </c>
+      <c r="J4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1386,19 +1410,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
         <v>145</v>
@@ -1407,10 +1431,10 @@
         <v>155</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
+        <v>164</v>
+      </c>
+      <c r="J5" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1418,19 +1442,19 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
         <v>146</v>
@@ -1439,10 +1463,10 @@
         <v>156</v>
       </c>
       <c r="I6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="J6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1450,31 +1474,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
         <v>147</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="J7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1482,31 +1506,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
         <v>148</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
-      </c>
-      <c r="J8">
-        <v>0.8014433919711321</v>
+        <v>167</v>
+      </c>
+      <c r="J8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1514,31 +1538,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G9" t="s">
         <v>149</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I9" t="s">
-        <v>169</v>
-      </c>
-      <c r="J9">
-        <v>0.8014433919711321</v>
+        <v>168</v>
+      </c>
+      <c r="J9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1546,31 +1570,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
         <v>150</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>170</v>
-      </c>
-      <c r="J10">
-        <v>0.8015873015873016</v>
+        <v>169</v>
+      </c>
+      <c r="J10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1578,31 +1602,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G11" t="s">
         <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="J11" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_10_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/R_Gonz/Non temporal models/simple_models_results_Date_threshold_10_1_replicas.xlsx
@@ -86,9 +86,6 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>0.001+/-0.001</t>
-  </si>
-  <si>
     <t>0.92+/-0.013</t>
   </si>
   <si>
@@ -101,7 +98,7 @@
     <t>0.938+/-0.093</t>
   </si>
   <si>
-    <t>0.575+/-0.035</t>
+    <t>0.574+/-0.034</t>
   </si>
   <si>
     <t>0.61</t>
@@ -116,7 +113,7 @@
     <t>0.405</t>
   </si>
   <si>
-    <t>0.004+/-0.001</t>
+    <t>0.002+/-0.0</t>
   </si>
   <si>
     <t>0.619+/-0.001</t>
@@ -143,7 +140,7 @@
     <t>0.04</t>
   </si>
   <si>
-    <t>0.327+/-0.05</t>
+    <t>0.198+/-0.026</t>
   </si>
   <si>
     <t>0.487+/-0.005</t>
@@ -173,7 +170,7 @@
     <t>0.799</t>
   </si>
   <si>
-    <t>0.008+/-0.003</t>
+    <t>0.006+/-0.001</t>
   </si>
   <si>
     <t>0.554+/-0.001</t>
@@ -203,37 +200,37 @@
     <t>0.498</t>
   </si>
   <si>
-    <t>0.009+/-0.001</t>
-  </si>
-  <si>
-    <t>0.723+/-0.007</t>
-  </si>
-  <si>
-    <t>0.684+/-0.0</t>
-  </si>
-  <si>
-    <t>0.689</t>
-  </si>
-  <si>
-    <t>0.706+/-0.024</t>
-  </si>
-  <si>
-    <t>0.631+/-0.035</t>
-  </si>
-  <si>
-    <t>0.682</t>
-  </si>
-  <si>
-    <t>0.47+/-0.035</t>
-  </si>
-  <si>
-    <t>0.42+/-0.046</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>6.614+/-1.155</t>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.731+/-0.006</t>
+  </si>
+  <si>
+    <t>0.689+/-0.0</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.719+/-0.029</t>
+  </si>
+  <si>
+    <t>0.64+/-0.03</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.487+/-0.037</t>
+  </si>
+  <si>
+    <t>0.427+/-0.048</t>
+  </si>
+  <si>
+    <t>0.401</t>
+  </si>
+  <si>
+    <t>4.799+/-1.03</t>
   </si>
   <si>
     <t>0.723+/-0.008</t>
@@ -242,28 +239,28 @@
     <t>0.659+/-0.0</t>
   </si>
   <si>
-    <t>0.648</t>
-  </si>
-  <si>
-    <t>0.761+/-0.04</t>
-  </si>
-  <si>
-    <t>0.605+/-0.046</t>
-  </si>
-  <si>
-    <t>0.556</t>
-  </si>
-  <si>
-    <t>0.406+/-0.054</t>
-  </si>
-  <si>
-    <t>0.324+/-0.051</t>
-  </si>
-  <si>
-    <t>0.379</t>
-  </si>
-  <si>
-    <t>0.101+/-0.002</t>
+    <t>0.646</t>
+  </si>
+  <si>
+    <t>0.76+/-0.04</t>
+  </si>
+  <si>
+    <t>0.606+/-0.047</t>
+  </si>
+  <si>
+    <t>0.552</t>
+  </si>
+  <si>
+    <t>0.406+/-0.053</t>
+  </si>
+  <si>
+    <t>0.324+/-0.05</t>
+  </si>
+  <si>
+    <t>0.377</t>
+  </si>
+  <si>
+    <t>0.084+/-0.009</t>
   </si>
   <si>
     <t>0.712+/-0.009</t>
@@ -272,28 +269,28 @@
     <t>0.661+/-0.0</t>
   </si>
   <si>
-    <t>0.656</t>
+    <t>0.657</t>
   </si>
   <si>
     <t>0.73+/-0.034</t>
   </si>
   <si>
-    <t>0.605+/-0.033</t>
-  </si>
-  <si>
-    <t>0.572</t>
-  </si>
-  <si>
-    <t>0.395+/-0.062</t>
-  </si>
-  <si>
-    <t>0.331+/-0.061</t>
+    <t>0.603+/-0.028</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.395+/-0.061</t>
+  </si>
+  <si>
+    <t>0.332+/-0.061</t>
   </si>
   <si>
     <t>0.388</t>
   </si>
   <si>
-    <t>0.134+/-0.002</t>
+    <t>0.105+/-0.009</t>
   </si>
   <si>
     <t>0.652+/-0.001</t>
@@ -323,7 +320,7 @@
     <t>0.099</t>
   </si>
   <si>
-    <t>56.494+/-6.805</t>
+    <t>35.878+/-4.007</t>
   </si>
   <si>
     <t>0.801+/-0.0</t>
@@ -380,7 +377,7 @@
     <t>0.004</t>
   </si>
   <si>
-    <t>0.351+/-0.06</t>
+    <t>0.188+/-0.022</t>
   </si>
   <si>
     <t>0.77+/-0.003</t>
@@ -410,9 +407,6 @@
     <t>0.142</t>
   </si>
   <si>
-    <t>0.009+/-0.002</t>
-  </si>
-  <si>
     <t>0.798+/-0.004</t>
   </si>
   <si>
@@ -440,99 +434,105 @@
     <t>0.002</t>
   </si>
   <si>
-    <t>0.01+/-0.005</t>
-  </si>
-  <si>
-    <t>0.827+/-0.004</t>
+    <t>0.006+/-0.0</t>
+  </si>
+  <si>
+    <t>0.83+/-0.003</t>
+  </si>
+  <si>
+    <t>0.813+/-0.0</t>
+  </si>
+  <si>
+    <t>0.821</t>
+  </si>
+  <si>
+    <t>0.76+/-0.03</t>
+  </si>
+  <si>
+    <t>0.611+/-0.055</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.216+/-0.036</t>
+  </si>
+  <si>
+    <t>0.164+/-0.029</t>
+  </si>
+  <si>
+    <t>0.185</t>
+  </si>
+  <si>
+    <t>3.97+/-0.487</t>
+  </si>
+  <si>
+    <t>0.84+/-0.002</t>
+  </si>
+  <si>
+    <t>0.8+/-0.0</t>
+  </si>
+  <si>
+    <t>0.807</t>
+  </si>
+  <si>
+    <t>0.857+/-0.024</t>
+  </si>
+  <si>
+    <t>0.489+/-0.052</t>
+  </si>
+  <si>
+    <t>0.547</t>
+  </si>
+  <si>
+    <t>0.234+/-0.021</t>
+  </si>
+  <si>
+    <t>0.134+/-0.021</t>
+  </si>
+  <si>
+    <t>0.147</t>
+  </si>
+  <si>
+    <t>0.073+/-0.007</t>
+  </si>
+  <si>
+    <t>0.833+/-0.003</t>
+  </si>
+  <si>
+    <t>0.803+/-0.0</t>
+  </si>
+  <si>
+    <t>0.804</t>
+  </si>
+  <si>
+    <t>0.849+/-0.06</t>
+  </si>
+  <si>
+    <t>0.529+/-0.074</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.194+/-0.028</t>
+  </si>
+  <si>
+    <t>0.12+/-0.016</t>
+  </si>
+  <si>
+    <t>0.189</t>
+  </si>
+  <si>
+    <t>0.092+/-0.006</t>
+  </si>
+  <si>
+    <t>0.812+/-0.001</t>
   </si>
   <si>
     <t>0.807+/-0.0</t>
   </si>
   <si>
-    <t>0.823</t>
-  </si>
-  <si>
-    <t>0.745+/-0.045</t>
-  </si>
-  <si>
-    <t>0.562+/-0.06</t>
-  </si>
-  <si>
-    <t>0.688</t>
-  </si>
-  <si>
-    <t>0.2+/-0.032</t>
-  </si>
-  <si>
-    <t>0.146+/-0.032</t>
-  </si>
-  <si>
-    <t>0.196</t>
-  </si>
-  <si>
-    <t>8.262+/-3.05</t>
-  </si>
-  <si>
-    <t>0.84+/-0.002</t>
-  </si>
-  <si>
-    <t>0.8+/-0.0</t>
-  </si>
-  <si>
-    <t>0.807</t>
-  </si>
-  <si>
-    <t>0.857+/-0.025</t>
-  </si>
-  <si>
-    <t>0.487+/-0.049</t>
-  </si>
-  <si>
-    <t>0.234+/-0.021</t>
-  </si>
-  <si>
-    <t>0.133+/-0.021</t>
-  </si>
-  <si>
-    <t>0.145</t>
-  </si>
-  <si>
-    <t>0.101+/-0.009</t>
-  </si>
-  <si>
-    <t>0.833+/-0.003</t>
-  </si>
-  <si>
-    <t>0.802+/-0.0</t>
-  </si>
-  <si>
-    <t>0.804</t>
-  </si>
-  <si>
-    <t>0.851+/-0.061</t>
-  </si>
-  <si>
-    <t>0.516+/-0.072</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.194+/-0.028</t>
-  </si>
-  <si>
-    <t>0.116+/-0.014</t>
-  </si>
-  <si>
-    <t>0.189</t>
-  </si>
-  <si>
-    <t>0.146+/-0.019</t>
-  </si>
-  <si>
-    <t>0.812+/-0.001</t>
-  </si>
-  <si>
     <t>0.808</t>
   </si>
   <si>
@@ -554,7 +554,7 @@
     <t>0.056</t>
   </si>
   <si>
-    <t>34.393+/-3.967</t>
+    <t>21.731+/-1.846</t>
   </si>
 </sst>
 </file>
@@ -955,28 +955,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -987,28 +987,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1019,28 +1019,28 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1051,28 +1051,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1083,28 +1083,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1115,28 +1115,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1147,28 +1147,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1179,28 +1179,28 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1211,28 +1211,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1240,31 +1240,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1314,31 +1314,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1346,31 +1346,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1378,28 +1378,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J4" t="s">
         <v>172</v>
@@ -1413,25 +1413,25 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
         <v>173</v>
@@ -1445,25 +1445,25 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
         <v>174</v>
@@ -1477,25 +1477,25 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="I7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J7" t="s">
         <v>175</v>
@@ -1509,25 +1509,25 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J8" t="s">
         <v>176</v>
@@ -1541,25 +1541,25 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J9" t="s">
         <v>177</v>
@@ -1573,25 +1573,25 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J10" t="s">
         <v>178</v>
@@ -1605,25 +1605,25 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J11" t="s">
         <v>179</v>
